--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_25.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463314.4536843075</v>
+        <v>575822.771342351</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2731752.266931183</v>
+        <v>2731752.266931182</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.332908225377223</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>274.452171367011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.790440613649858</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>14.48345164522491</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.19687000334993</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>88.88965426564968</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>39.63887456052405</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75.18525841685333</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>297.5505666017713</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>59.35297612243359</v>
+        <v>201.1407479991918</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.4298486781792</v>
+        <v>235.8725802072013</v>
       </c>
       <c r="H11" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>166.1360018730143</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H12" t="n">
-        <v>97.38999444196338</v>
+        <v>97.38999444196337</v>
       </c>
       <c r="I12" t="n">
-        <v>36.47348076827033</v>
+        <v>36.47348076827031</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840901</v>
       </c>
       <c r="S12" t="n">
         <v>143.1316361901922</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142.9404988026223</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1549,7 +1549,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J13" t="n">
-        <v>2.249572729045425</v>
+        <v>2.249572729045397</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>160.9424468248996</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>404.9689884802589</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H14" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I14" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366315</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>18.8607752264143</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>97.38999444196337</v>
       </c>
       <c r="I15" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827031</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840901</v>
       </c>
       <c r="S15" t="n">
         <v>143.1316361901922</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>142.9404988026223</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H16" t="n">
         <v>150.7696444085454</v>
@@ -1786,7 +1786,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045397</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.763817516305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H17" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I17" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5197786803569</v>
+        <v>118.5796179100783</v>
       </c>
       <c r="U17" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>175.3418769266581</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>160.8228837610403</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4394153930256</v>
+        <v>216.0154780554382</v>
       </c>
       <c r="U19" t="n">
         <v>286.2487377730621</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>71.66292707365609</v>
       </c>
       <c r="G20" t="n">
         <v>412.4298486781792</v>
@@ -2099,7 +2099,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
-        <v>99.71884268366315</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U20" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>149.1499669045322</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>97.38999444196337</v>
       </c>
       <c r="I21" t="n">
-        <v>36.47348076827031</v>
+        <v>36.47348076827032</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.720873529840901</v>
+        <v>4.720873529840915</v>
       </c>
       <c r="S21" t="n">
         <v>143.1316361901922</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H22" t="n">
         <v>150.7696444085454</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.10141436292146</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>126.1277732210894</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>136.1537375235373</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I23" t="n">
         <v>99.71884268366317</v>
@@ -2375,13 +2375,13 @@
         <v>251.11582180088</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>111.1544186796686</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>23.59080269859186</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>259.0030853971227</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5197786803569</v>
+        <v>73.15064961249854</v>
       </c>
       <c r="U26" t="n">
         <v>251.11582180088</v>
@@ -2615,10 +2615,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>276.19724414106</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>109.1795946273779</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.2659905431839</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>208.0312782815067</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H29" t="n">
         <v>310.0528293142925</v>
@@ -2843,13 +2843,13 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>203.0589184824374</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.19097900670264</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,19 +2959,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>41.25819031668324</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>175.23014689346</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>412.4298486781792</v>
       </c>
       <c r="H32" t="n">
-        <v>177.5166254234894</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U32" t="n">
         <v>251.11582180088</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>122.4789303748836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>8.890867950747939</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>133.6269929227552</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3329,10 +3329,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>169.640098865588</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>170.9568065357797</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.561084943428898</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H38" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>99.71884268366317</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.5541152141125</v>
+        <v>77.79778273982645</v>
       </c>
       <c r="T38" t="n">
-        <v>6.121208283683881</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.11582180088</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>36.95519699784857</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>105.3417732602489</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T41" t="n">
         <v>210.5197786803569</v>
@@ -3800,10 +3800,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>132.6431289269476</v>
       </c>
       <c r="X41" t="n">
-        <v>276.19724414106</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>35.975134493287</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>105.3417732602489</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S43" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.4298486781792</v>
+        <v>235.8725802072005</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>251.11582180088</v>
       </c>
       <c r="V44" t="n">
-        <v>51.47614731549276</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4.088121218008118</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>136.4566681631473</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>1628.293017861605</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.777806202926</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1640.777806202926</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>2014.892857925727</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>63.83231577354613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>63.83231577354613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>63.83231577354613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>63.83231577354613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>68.57273095695527</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.049931616194</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2673.717909196656</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U5" t="n">
-        <v>2673.717909196656</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V5" t="n">
-        <v>2342.655021853086</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W5" t="n">
-        <v>2342.655021853086</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X5" t="n">
-        <v>1969.189263592006</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.049931616194</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511404</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511404</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>246.4894537511404</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>246.4894537511404</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="V7" t="n">
-        <v>246.4894537511404</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="W7" t="n">
-        <v>246.4894537511404</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511404</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511404</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>1470.569074795015</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D8" t="n">
-        <v>1112.303376188265</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>925.928893807665</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>507.9650857058518</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U10" t="n">
-        <v>490.6129053604687</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2440.378280303069</v>
+        <v>1848.126825283945</v>
       </c>
       <c r="C11" t="n">
-        <v>2071.415763362658</v>
+        <v>1479.164308343533</v>
       </c>
       <c r="D11" t="n">
-        <v>1713.150064755907</v>
+        <v>1120.898609736783</v>
       </c>
       <c r="E11" t="n">
-        <v>1327.361812157663</v>
+        <v>735.1103571385383</v>
       </c>
       <c r="F11" t="n">
-        <v>916.3759073680556</v>
+        <v>324.1244523489308</v>
       </c>
       <c r="G11" t="n">
-        <v>499.78010062242</v>
+        <v>85.86932082650517</v>
       </c>
       <c r="H11" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650517</v>
       </c>
       <c r="I11" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650517</v>
       </c>
       <c r="J11" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017701</v>
       </c>
       <c r="K11" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726834</v>
       </c>
       <c r="L11" t="n">
-        <v>1409.142484443882</v>
+        <v>1409.142484443883</v>
       </c>
       <c r="M11" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712279</v>
       </c>
       <c r="N11" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O11" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P11" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q11" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.17700571661</v>
       </c>
       <c r="R11" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325259</v>
       </c>
       <c r="S11" t="n">
-        <v>4148.461884543325</v>
+        <v>4148.461884543327</v>
       </c>
       <c r="T11" t="n">
-        <v>3935.815643452056</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U11" t="n">
-        <v>3682.163298198641</v>
+        <v>3682.163298198643</v>
       </c>
       <c r="V11" t="n">
-        <v>3351.100410855071</v>
+        <v>3351.100410855072</v>
       </c>
       <c r="W11" t="n">
-        <v>2998.331755584956</v>
+        <v>2998.331755584958</v>
       </c>
       <c r="X11" t="n">
-        <v>2830.517612278881</v>
+        <v>2624.865997323878</v>
       </c>
       <c r="Y11" t="n">
-        <v>2440.378280303069</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G12" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H12" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I12" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650517</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650517</v>
       </c>
       <c r="K12" t="n">
-        <v>599.9915027548478</v>
+        <v>211.2268808843426</v>
       </c>
       <c r="L12" t="n">
-        <v>1160.370027405021</v>
+        <v>771.605405534516</v>
       </c>
       <c r="M12" t="n">
-        <v>1480.705346934723</v>
+        <v>1477.519934094134</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.461395338416</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O12" t="n">
-        <v>2091.407506135336</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P12" t="n">
         <v>2564.640348518367</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.5854293311858</v>
+        <v>1140.551345253822</v>
       </c>
       <c r="C13" t="n">
-        <v>673.5854293311858</v>
+        <v>971.6151623259146</v>
       </c>
       <c r="D13" t="n">
-        <v>673.5854293311858</v>
+        <v>821.4985229135789</v>
       </c>
       <c r="E13" t="n">
         <v>673.5854293311858</v>
@@ -5194,22 +5194,22 @@
         <v>206.0167497752185</v>
       </c>
       <c r="I13" t="n">
-        <v>88.1416165124096</v>
+        <v>88.14161651240961</v>
       </c>
       <c r="J13" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650517</v>
       </c>
       <c r="K13" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951881</v>
       </c>
       <c r="L13" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430047</v>
       </c>
       <c r="M13" t="n">
-        <v>668.2102932905834</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N13" t="n">
-        <v>907.1321508824185</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O13" t="n">
         <v>1111.798861477226</v>
@@ -5218,31 +5218,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q13" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R13" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S13" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T13" t="n">
-        <v>1122.367559372733</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="U13" t="n">
-        <v>1122.367559372733</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="V13" t="n">
-        <v>1122.367559372733</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="W13" t="n">
-        <v>1122.367559372733</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="X13" t="n">
-        <v>894.3780084747159</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.5854293311858</v>
+        <v>1284.935687478693</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2432.842057880928</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C14" t="n">
-        <v>2063.879540940516</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D14" t="n">
-        <v>1705.613842333766</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E14" t="n">
-        <v>1319.825589735521</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F14" t="n">
-        <v>908.8396849459139</v>
+        <v>916.3759073680554</v>
       </c>
       <c r="G14" t="n">
-        <v>499.78010062242</v>
+        <v>499.7801006224199</v>
       </c>
       <c r="H14" t="n">
         <v>186.595424547377</v>
@@ -5276,10 +5276,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J14" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K14" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726831</v>
       </c>
       <c r="L14" t="n">
         <v>1409.142484443882</v>
@@ -5303,25 +5303,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S14" t="n">
-        <v>4148.461884543325</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T14" t="n">
-        <v>3935.815643452056</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="U14" t="n">
-        <v>3935.815643452056</v>
+        <v>4274.414753217768</v>
       </c>
       <c r="V14" t="n">
-        <v>3935.815643452056</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W14" t="n">
-        <v>3583.046988181941</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X14" t="n">
-        <v>3209.581229920861</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y14" t="n">
-        <v>2819.44189794505</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>221.0849523519937</v>
       </c>
       <c r="H15" t="n">
-        <v>122.7112205924348</v>
+        <v>122.7112205924347</v>
       </c>
       <c r="I15" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J15" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K15" t="n">
-        <v>104.0729930803638</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L15" t="n">
-        <v>450.9366837890319</v>
+        <v>710.5377868552087</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.85121234865</v>
+        <v>1030.87310638491</v>
       </c>
       <c r="N15" t="n">
-        <v>1897.156211352461</v>
+        <v>1771.178105388722</v>
       </c>
       <c r="O15" t="n">
-        <v>1897.156211352461</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q15" t="n">
         <v>2634.034907031697</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.3093198848604</v>
+        <v>1140.551345253822</v>
       </c>
       <c r="C16" t="n">
-        <v>358.3093198848604</v>
+        <v>971.6151623259146</v>
       </c>
       <c r="D16" t="n">
-        <v>358.3093198848604</v>
+        <v>821.4985229135789</v>
       </c>
       <c r="E16" t="n">
-        <v>358.3093198848604</v>
+        <v>673.5854293311858</v>
       </c>
       <c r="F16" t="n">
-        <v>358.3093198848604</v>
+        <v>526.6954818332754</v>
       </c>
       <c r="G16" t="n">
         <v>358.3093198848604</v>
@@ -5431,7 +5431,7 @@
         <v>206.0167497752185</v>
       </c>
       <c r="I16" t="n">
-        <v>88.14161651240958</v>
+        <v>88.14161651240957</v>
       </c>
       <c r="J16" t="n">
         <v>85.86932082650513</v>
@@ -5440,13 +5440,13 @@
         <v>212.046385895188</v>
       </c>
       <c r="L16" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430046</v>
       </c>
       <c r="M16" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N16" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O16" t="n">
         <v>1111.798861477226</v>
@@ -5458,28 +5458,28 @@
         <v>1284.935687478693</v>
       </c>
       <c r="R16" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S16" t="n">
-        <v>960.7860579478834</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T16" t="n">
-        <v>736.09977977311</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="U16" t="n">
-        <v>446.9596406084008</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="V16" t="n">
-        <v>446.9596406084008</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="W16" t="n">
-        <v>446.9596406084008</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="X16" t="n">
-        <v>446.9596406084008</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="Y16" t="n">
-        <v>358.3093198848604</v>
+        <v>1284.935687478693</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2023.782473557434</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C17" t="n">
-        <v>1654.819956617022</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D17" t="n">
-        <v>1296.554258010272</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E17" t="n">
-        <v>910.7660054120275</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F17" t="n">
-        <v>499.78010062242</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G17" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H17" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I17" t="n">
         <v>85.86932082650516</v>
@@ -5540,25 +5540,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S17" t="n">
-        <v>4148.461884543326</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="T17" t="n">
-        <v>3935.815643452057</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="U17" t="n">
-        <v>3682.163298198642</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="V17" t="n">
-        <v>3351.100410855071</v>
+        <v>3842.625762153325</v>
       </c>
       <c r="W17" t="n">
-        <v>3173.987403858447</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X17" t="n">
-        <v>2800.521645597367</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2410.382313621556</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>228.9031180673686</v>
       </c>
       <c r="K18" t="n">
-        <v>599.9915027548479</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L18" t="n">
-        <v>829.9546086231971</v>
+        <v>792.2189078541375</v>
       </c>
       <c r="M18" t="n">
-        <v>1150.289928152899</v>
+        <v>1498.133436413755</v>
       </c>
       <c r="N18" t="n">
-        <v>1549.98329913237</v>
+        <v>1842.654092051373</v>
       </c>
       <c r="O18" t="n">
-        <v>2160.802064648665</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P18" t="n">
-        <v>2634.034907031697</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q18" t="n">
         <v>2634.034907031697</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.6723619068086</v>
+        <v>549.6085448347155</v>
       </c>
       <c r="C19" t="n">
         <v>380.6723619068086</v>
@@ -5698,25 +5698,25 @@
         <v>1284.935687478693</v>
       </c>
       <c r="S19" t="n">
-        <v>1122.488330144309</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T19" t="n">
-        <v>897.8020519695351</v>
+        <v>1066.738234897442</v>
       </c>
       <c r="U19" t="n">
-        <v>608.661912804826</v>
+        <v>777.5980957327329</v>
       </c>
       <c r="V19" t="n">
-        <v>608.661912804826</v>
+        <v>777.5980957327329</v>
       </c>
       <c r="W19" t="n">
-        <v>608.661912804826</v>
+        <v>777.5980957327329</v>
       </c>
       <c r="X19" t="n">
-        <v>380.6723619068086</v>
+        <v>549.6085448347155</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.6723619068086</v>
+        <v>549.6085448347155</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2440.378280303069</v>
+        <v>2101.779170537357</v>
       </c>
       <c r="C20" t="n">
-        <v>2071.415763362658</v>
+        <v>1732.816653596945</v>
       </c>
       <c r="D20" t="n">
-        <v>1713.150064755907</v>
+        <v>1374.550954990195</v>
       </c>
       <c r="E20" t="n">
-        <v>1327.361812157663</v>
+        <v>988.7627023919506</v>
       </c>
       <c r="F20" t="n">
         <v>916.3759073680556</v>
@@ -5747,13 +5747,13 @@
         <v>186.595424547377</v>
       </c>
       <c r="I20" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K20" t="n">
-        <v>780.2368617726831</v>
+        <v>780.236861772683</v>
       </c>
       <c r="L20" t="n">
         <v>1409.142484443882</v>
@@ -5765,37 +5765,37 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O20" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P20" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q20" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R20" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S20" t="n">
-        <v>4148.461884543326</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T20" t="n">
-        <v>3935.815643452057</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U20" t="n">
-        <v>3682.163298198642</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="V20" t="n">
-        <v>3351.100410855071</v>
+        <v>3604.752756108485</v>
       </c>
       <c r="W20" t="n">
-        <v>3200.443878628271</v>
+        <v>3251.984100838371</v>
       </c>
       <c r="X20" t="n">
-        <v>2826.978120367191</v>
+        <v>2878.518342577291</v>
       </c>
       <c r="Y20" t="n">
-        <v>2826.978120367191</v>
+        <v>2488.379010601479</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>122.7112205924348</v>
       </c>
       <c r="I21" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J21" t="n">
-        <v>85.86932082650516</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K21" t="n">
-        <v>211.2268808843426</v>
+        <v>490.7798153231369</v>
       </c>
       <c r="L21" t="n">
-        <v>516.2864920723335</v>
+        <v>720.7429211914861</v>
       </c>
       <c r="M21" t="n">
-        <v>836.6218116020353</v>
+        <v>1426.657449751104</v>
       </c>
       <c r="N21" t="n">
-        <v>1576.926810605847</v>
+        <v>1771.178105388722</v>
       </c>
       <c r="O21" t="n">
-        <v>2187.745576122141</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.389053735492</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q21" t="n">
         <v>2634.034907031697</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>852.0177543566931</v>
+        <v>3415.078406731126</v>
       </c>
       <c r="C22" t="n">
-        <v>683.0815714287862</v>
+        <v>3415.078406731126</v>
       </c>
       <c r="D22" t="n">
-        <v>532.9649320164505</v>
+        <v>3415.078406731126</v>
       </c>
       <c r="E22" t="n">
-        <v>385.0518384340573</v>
+        <v>3415.078406731126</v>
       </c>
       <c r="F22" t="n">
-        <v>238.161890936147</v>
+        <v>3415.078406731126</v>
       </c>
       <c r="G22" t="n">
-        <v>238.161890936147</v>
+        <v>3246.692244782711</v>
       </c>
       <c r="H22" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="I22" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="J22" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="K22" t="n">
-        <v>212.0463858951881</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L22" t="n">
-        <v>429.0360225430047</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M22" t="n">
-        <v>668.2102932905836</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N22" t="n">
-        <v>907.1321508824187</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O22" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P22" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q22" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R22" t="n">
-        <v>1164.380438888763</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.380438888763</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="T22" t="n">
-        <v>1106.70224256258</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="U22" t="n">
-        <v>1106.70224256258</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="V22" t="n">
-        <v>852.0177543566931</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="W22" t="n">
-        <v>852.0177543566931</v>
+        <v>4045.509001602913</v>
       </c>
       <c r="X22" t="n">
-        <v>852.0177543566931</v>
+        <v>3817.519450704896</v>
       </c>
       <c r="Y22" t="n">
-        <v>852.0177543566931</v>
+        <v>3596.726871561366</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1848.126825283944</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C23" t="n">
-        <v>1479.164308343532</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D23" t="n">
-        <v>1120.898609736782</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E23" t="n">
-        <v>735.1103571385374</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1244523489299</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G23" t="n">
-        <v>186.595424547377</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H23" t="n">
         <v>186.595424547377</v>
       </c>
       <c r="I23" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J23" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K23" t="n">
-        <v>780.2368617726829</v>
+        <v>780.236861772683</v>
       </c>
       <c r="L23" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M23" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712278998</v>
       </c>
       <c r="N23" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O23" t="n">
         <v>3467.276709192399</v>
@@ -6008,31 +6008,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q23" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R23" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S23" t="n">
-        <v>4148.461884543326</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T23" t="n">
-        <v>3935.815643452057</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U23" t="n">
-        <v>3682.163298198642</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V23" t="n">
-        <v>3351.100410855071</v>
+        <v>3569.886107613117</v>
       </c>
       <c r="W23" t="n">
-        <v>2998.331755584957</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="X23" t="n">
-        <v>2624.865997323877</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y23" t="n">
-        <v>2234.726665348066</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H24" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I24" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J24" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K24" t="n">
         <v>456.9577055139844</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.336230164158</v>
+        <v>700.246077902771</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.67154969386</v>
+        <v>1020.581397432473</v>
       </c>
       <c r="N24" t="n">
-        <v>1682.192205331477</v>
+        <v>1286.337445836166</v>
       </c>
       <c r="O24" t="n">
-        <v>2293.010970847772</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P24" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q24" t="n">
         <v>2634.034907031697</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3263.335857600977</v>
+        <v>4149.081699100386</v>
       </c>
       <c r="C25" t="n">
-        <v>3094.39967467307</v>
+        <v>3980.145516172478</v>
       </c>
       <c r="D25" t="n">
-        <v>3094.39967467307</v>
+        <v>3830.028876760143</v>
       </c>
       <c r="E25" t="n">
-        <v>3094.39967467307</v>
+        <v>3682.11578317775</v>
       </c>
       <c r="F25" t="n">
-        <v>3094.39967467307</v>
+        <v>3535.225835679839</v>
       </c>
       <c r="G25" t="n">
-        <v>3094.39967467307</v>
+        <v>3366.839673731424</v>
       </c>
       <c r="H25" t="n">
-        <v>3094.39967467307</v>
+        <v>3214.547103621782</v>
       </c>
       <c r="I25" t="n">
-        <v>3094.39967467307</v>
+        <v>3096.671970358973</v>
       </c>
       <c r="J25" t="n">
-        <v>3094.39967467307</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="K25" t="n">
-        <v>3220.576739741753</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L25" t="n">
-        <v>3437.56637638957</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M25" t="n">
-        <v>3676.740647137149</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N25" t="n">
-        <v>3915.662504728984</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O25" t="n">
-        <v>4120.329215323791</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P25" t="n">
-        <v>4271.936261275596</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q25" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R25" t="n">
-        <v>4293.466041325258</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="S25" t="n">
-        <v>4293.466041325258</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="T25" t="n">
-        <v>4068.779763150485</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="U25" t="n">
-        <v>3779.639623985775</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="V25" t="n">
-        <v>3524.955135779889</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="W25" t="n">
-        <v>3263.335857600977</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="X25" t="n">
-        <v>3263.335857600977</v>
+        <v>4172.910792735327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3263.335857600977</v>
+        <v>4172.910792735327</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2440.378280303069</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C26" t="n">
-        <v>2071.415763362658</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D26" t="n">
-        <v>1713.150064755907</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.361812157663</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F26" t="n">
-        <v>916.3759073680556</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G26" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H26" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I26" t="n">
         <v>85.86932082650516</v>
@@ -6251,25 +6251,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S26" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T26" t="n">
-        <v>4080.819800233988</v>
+        <v>4074.572339480196</v>
       </c>
       <c r="U26" t="n">
-        <v>3827.167454980574</v>
+        <v>3820.919994226782</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.104567637003</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="W26" t="n">
-        <v>3217.117452343003</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.117452343003</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y26" t="n">
-        <v>2826.978120367191</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>85.86932082650516</v>
       </c>
       <c r="J27" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K27" t="n">
-        <v>599.9915027548479</v>
+        <v>456.9577055139844</v>
       </c>
       <c r="L27" t="n">
-        <v>1160.370027405021</v>
+        <v>1017.336230164158</v>
       </c>
       <c r="M27" t="n">
-        <v>1480.705346934723</v>
+        <v>1337.67154969386</v>
       </c>
       <c r="N27" t="n">
-        <v>1825.226002572341</v>
+        <v>1840.572663902051</v>
       </c>
       <c r="O27" t="n">
-        <v>2381.996870905016</v>
+        <v>2451.391429418346</v>
       </c>
       <c r="P27" t="n">
-        <v>2564.640348518367</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="Q27" t="n">
         <v>2634.034907031697</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.86932082650516</v>
+        <v>3373.61827641651</v>
       </c>
       <c r="C28" t="n">
-        <v>85.86932082650516</v>
+        <v>3204.682093488603</v>
       </c>
       <c r="D28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="E28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="F28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="I28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J28" t="n">
-        <v>85.86932082650516</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K28" t="n">
-        <v>212.046385895188</v>
+        <v>3220.576739741753</v>
       </c>
       <c r="L28" t="n">
-        <v>429.0360225430046</v>
+        <v>3437.56637638957</v>
       </c>
       <c r="M28" t="n">
-        <v>668.2102932905836</v>
+        <v>3676.740647137149</v>
       </c>
       <c r="N28" t="n">
-        <v>907.1321508824187</v>
+        <v>3915.662504728984</v>
       </c>
       <c r="O28" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.329215323791</v>
       </c>
       <c r="P28" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275596</v>
       </c>
       <c r="Q28" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="R28" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S28" t="n">
-        <v>1284.935687478693</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="T28" t="n">
-        <v>1060.249409303919</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="U28" t="n">
-        <v>1060.249409303919</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="V28" t="n">
-        <v>805.5649210980324</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="W28" t="n">
-        <v>516.1477510610719</v>
+        <v>4004.048871288297</v>
       </c>
       <c r="X28" t="n">
-        <v>288.1582001630545</v>
+        <v>3776.05932039028</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.86932082650516</v>
+        <v>3555.26674124675</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1848.126825283944</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C29" t="n">
-        <v>1479.164308343532</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D29" t="n">
-        <v>1120.898609736782</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E29" t="n">
-        <v>1120.898609736782</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F29" t="n">
-        <v>709.9127049471742</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G29" t="n">
         <v>499.78010062242</v>
@@ -6461,25 +6461,25 @@
         <v>85.86932082650516</v>
       </c>
       <c r="J29" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017701</v>
       </c>
       <c r="K29" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726838</v>
       </c>
       <c r="L29" t="n">
-        <v>1409.142484443882</v>
+        <v>1409.142484443883</v>
       </c>
       <c r="M29" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712279</v>
       </c>
       <c r="N29" t="n">
         <v>2838.872804512373</v>
       </c>
       <c r="O29" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P29" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q29" t="n">
         <v>4263.177005716609</v>
@@ -6491,22 +6491,22 @@
         <v>4148.461884543326</v>
       </c>
       <c r="T29" t="n">
-        <v>3935.815643452057</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="U29" t="n">
-        <v>3682.163298198642</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="V29" t="n">
-        <v>3351.100410855071</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W29" t="n">
-        <v>2998.331755584957</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X29" t="n">
-        <v>2624.865997323877</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y29" t="n">
-        <v>2234.726665348066</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2646.853706366317</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C30" t="n">
-        <v>2472.40067708519</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D30" t="n">
-        <v>2323.466267423939</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E30" t="n">
-        <v>2164.228812418483</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F30" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G30" t="n">
-        <v>1880.516086645555</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H30" t="n">
-        <v>1782.142354885996</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I30" t="n">
-        <v>1745.300455120067</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J30" t="n">
-        <v>1745.300455120067</v>
+        <v>104.0729930803639</v>
       </c>
       <c r="K30" t="n">
-        <v>1870.658015177904</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L30" t="n">
-        <v>2100.621121046253</v>
+        <v>406.5873759251391</v>
       </c>
       <c r="M30" t="n">
-        <v>2420.956440575955</v>
+        <v>1112.501904484757</v>
       </c>
       <c r="N30" t="n">
-        <v>3161.261439579766</v>
+        <v>1809.592101648194</v>
       </c>
       <c r="O30" t="n">
-        <v>3772.080205096061</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P30" t="n">
-        <v>4029.820188029053</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q30" t="n">
-        <v>4293.466041325258</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R30" t="n">
-        <v>4288.697482204207</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S30" t="n">
-        <v>4144.120071911083</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T30" t="n">
-        <v>3948.191777052955</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U30" t="n">
-        <v>3720.070307316816</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V30" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W30" t="n">
-        <v>3230.680842356872</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X30" t="n">
-        <v>3022.829342151339</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y30" t="n">
-        <v>2815.069043386385</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3714.631923588561</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="C31" t="n">
-        <v>3682.11578317775</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.11578317775</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="E31" t="n">
-        <v>3682.11578317775</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="F31" t="n">
-        <v>3535.22583567984</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G31" t="n">
-        <v>3366.839673731425</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H31" t="n">
-        <v>3214.547103621783</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="I31" t="n">
-        <v>3096.671970358974</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J31" t="n">
         <v>3094.39967467307</v>
@@ -6649,22 +6649,22 @@
         <v>3969.316411794448</v>
       </c>
       <c r="T31" t="n">
-        <v>3969.316411794448</v>
+        <v>3927.641472080626</v>
       </c>
       <c r="U31" t="n">
-        <v>3969.316411794448</v>
+        <v>3638.501332915917</v>
       </c>
       <c r="V31" t="n">
-        <v>3714.631923588561</v>
+        <v>3383.816844710031</v>
       </c>
       <c r="W31" t="n">
-        <v>3714.631923588561</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="X31" t="n">
-        <v>3714.631923588561</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="Y31" t="n">
-        <v>3714.631923588561</v>
+        <v>3094.39967467307</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2205.777223157144</v>
+        <v>1848.126825283944</v>
       </c>
       <c r="C32" t="n">
-        <v>1836.814706216732</v>
+        <v>1479.164308343532</v>
       </c>
       <c r="D32" t="n">
-        <v>1478.549007609982</v>
+        <v>1302.1641599663</v>
       </c>
       <c r="E32" t="n">
-        <v>1092.760755011738</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="F32" t="n">
-        <v>681.77485022213</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G32" t="n">
-        <v>265.1790434764945</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H32" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I32" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J32" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K32" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L32" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M32" t="n">
-        <v>2125.527712278998</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N32" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O32" t="n">
         <v>3467.276709192399</v>
@@ -6719,31 +6719,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q32" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716609</v>
       </c>
       <c r="R32" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S32" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T32" t="n">
-        <v>4293.466041325257</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U32" t="n">
-        <v>4039.813696071843</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V32" t="n">
-        <v>3708.750808728272</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W32" t="n">
-        <v>3355.982153458157</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X32" t="n">
-        <v>2982.516395197078</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y32" t="n">
-        <v>2592.377063221266</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G33" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H33" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I33" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J33" t="n">
-        <v>85.86932082650513</v>
+        <v>104.0729930803639</v>
       </c>
       <c r="K33" t="n">
-        <v>456.9577055139844</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L33" t="n">
-        <v>792.2189078541375</v>
+        <v>363.3725740847655</v>
       </c>
       <c r="M33" t="n">
-        <v>1498.133436413755</v>
+        <v>1069.287102644383</v>
       </c>
       <c r="N33" t="n">
-        <v>1842.654092051373</v>
+        <v>1809.592101648194</v>
       </c>
       <c r="O33" t="n">
-        <v>2091.407506135336</v>
+        <v>2420.410867164489</v>
       </c>
       <c r="P33" t="n">
-        <v>2564.640348518367</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q33" t="n">
         <v>2634.034907031697</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>654.5050926069055</v>
+        <v>882.4946435049229</v>
       </c>
       <c r="C34" t="n">
-        <v>530.7890013191443</v>
+        <v>713.558460577016</v>
       </c>
       <c r="D34" t="n">
-        <v>380.6723619068086</v>
+        <v>563.4418211646803</v>
       </c>
       <c r="E34" t="n">
-        <v>232.7592683244155</v>
+        <v>415.5287275822872</v>
       </c>
       <c r="F34" t="n">
-        <v>85.86932082650513</v>
+        <v>406.548052884562</v>
       </c>
       <c r="G34" t="n">
-        <v>85.86932082650513</v>
+        <v>238.161890936147</v>
       </c>
       <c r="H34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J34" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K34" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L34" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430046</v>
       </c>
       <c r="M34" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N34" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O34" t="n">
         <v>1111.798861477226</v>
@@ -6898,10 +6898,10 @@
         <v>1284.935687478693</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.946136580675</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.1535574371452</v>
+        <v>1064.143108335163</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2440.378280303069</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C35" t="n">
-        <v>2071.415763362658</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="D35" t="n">
         <v>1713.150064755907</v>
@@ -6932,13 +6932,13 @@
         <v>186.595424547377</v>
       </c>
       <c r="I35" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J35" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K35" t="n">
-        <v>780.2368617726833</v>
+        <v>780.236861772683</v>
       </c>
       <c r="L35" t="n">
         <v>1409.142484443882</v>
@@ -6950,37 +6950,37 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O35" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P35" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q35" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R35" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S35" t="n">
-        <v>4148.461884543326</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T35" t="n">
-        <v>3935.815643452057</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U35" t="n">
-        <v>3682.163298198642</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V35" t="n">
         <v>3351.100410855071</v>
       </c>
       <c r="W35" t="n">
-        <v>2998.331755584957</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X35" t="n">
-        <v>2998.331755584957</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y35" t="n">
-        <v>2826.978120367191</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4225720727555</v>
+        <v>2646.853706366316</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9695427916286</v>
+        <v>2472.400677085189</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0351331303773</v>
+        <v>2323.466267423938</v>
       </c>
       <c r="E36" t="n">
-        <v>504.7976781249217</v>
+        <v>2164.228812418482</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2631201518067</v>
+        <v>2017.694254445368</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0849523519938</v>
+        <v>1880.516086645554</v>
       </c>
       <c r="H36" t="n">
-        <v>122.7112205924348</v>
+        <v>1782.142354885995</v>
       </c>
       <c r="I36" t="n">
-        <v>85.86932082650516</v>
+        <v>1745.300455120066</v>
       </c>
       <c r="J36" t="n">
-        <v>228.9031180673686</v>
+        <v>1769.939591368647</v>
       </c>
       <c r="K36" t="n">
-        <v>599.9915027548479</v>
+        <v>1895.297151426485</v>
       </c>
       <c r="L36" t="n">
-        <v>1160.370027405021</v>
+        <v>2125.260257294834</v>
       </c>
       <c r="M36" t="n">
-        <v>1405.236542852139</v>
+        <v>2831.174785854452</v>
       </c>
       <c r="N36" t="n">
-        <v>1676.261141920128</v>
+        <v>3571.479784858263</v>
       </c>
       <c r="O36" t="n">
-        <v>1897.156211352461</v>
+        <v>3820.233198942225</v>
       </c>
       <c r="P36" t="n">
-        <v>2370.389053735493</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2634.034907031697</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R36" t="n">
-        <v>2629.266347910645</v>
+        <v>4288.697482204206</v>
       </c>
       <c r="S36" t="n">
-        <v>2484.688937617521</v>
+        <v>4144.120071911082</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.760642759394</v>
+        <v>3948.191777052954</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.639173023254</v>
+        <v>3720.070307316815</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.487064791512</v>
+        <v>3484.918199085073</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.24970806331</v>
+        <v>3230.680842356871</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.398207857777</v>
+        <v>3022.829342151338</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.637909092824</v>
+        <v>2815.069043386384</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>257.0777994403165</v>
+        <v>552.8352367491409</v>
       </c>
       <c r="C37" t="n">
-        <v>88.14161651240961</v>
+        <v>383.899053821234</v>
       </c>
       <c r="D37" t="n">
-        <v>88.14161651240961</v>
+        <v>233.7824144088983</v>
       </c>
       <c r="E37" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F37" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G37" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H37" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I37" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J37" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K37" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M37" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905835</v>
       </c>
       <c r="N37" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824186</v>
       </c>
       <c r="O37" t="n">
         <v>1111.798861477226</v>
@@ -7117,28 +7117,28 @@
         <v>1284.935687478693</v>
       </c>
       <c r="R37" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S37" t="n">
-        <v>991.6967959233293</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T37" t="n">
-        <v>767.0105177485559</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="U37" t="n">
-        <v>477.8703785838467</v>
+        <v>995.7955483139835</v>
       </c>
       <c r="V37" t="n">
-        <v>477.8703785838467</v>
+        <v>741.1110601080967</v>
       </c>
       <c r="W37" t="n">
-        <v>477.8703785838467</v>
+        <v>734.4837015793806</v>
       </c>
       <c r="X37" t="n">
-        <v>477.8703785838467</v>
+        <v>734.4837015793806</v>
       </c>
       <c r="Y37" t="n">
-        <v>257.0777994403165</v>
+        <v>734.4837015793806</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2054.590027704825</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C38" t="n">
-        <v>1685.627510764414</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D38" t="n">
-        <v>1327.361812157663</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E38" t="n">
-        <v>1327.361812157663</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F38" t="n">
-        <v>916.3759073680556</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G38" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H38" t="n">
         <v>186.595424547377</v>
       </c>
       <c r="I38" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J38" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K38" t="n">
-        <v>780.2368617726828</v>
+        <v>780.236861772683</v>
       </c>
       <c r="L38" t="n">
         <v>1409.142484443882</v>
@@ -7187,37 +7187,37 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O38" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P38" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q38" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R38" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S38" t="n">
-        <v>4148.461884543326</v>
+        <v>4214.882422396139</v>
       </c>
       <c r="T38" t="n">
-        <v>4142.278845872938</v>
+        <v>4214.882422396139</v>
       </c>
       <c r="U38" t="n">
-        <v>3888.626500619524</v>
+        <v>3961.230077142725</v>
       </c>
       <c r="V38" t="n">
-        <v>3557.563613275953</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W38" t="n">
-        <v>3204.794958005839</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X38" t="n">
-        <v>2831.329199744759</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y38" t="n">
-        <v>2441.189867768947</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7242,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G39" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H39" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I39" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J39" t="n">
-        <v>85.86932082650516</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K39" t="n">
-        <v>211.2268808843426</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="L39" t="n">
-        <v>735.2265630390657</v>
+        <v>458.8662239357177</v>
       </c>
       <c r="M39" t="n">
-        <v>1055.561882568767</v>
+        <v>1164.780752495335</v>
       </c>
       <c r="N39" t="n">
-        <v>1795.866881572579</v>
+        <v>1905.085751499147</v>
       </c>
       <c r="O39" t="n">
-        <v>2406.685647088873</v>
+        <v>2153.839165583109</v>
       </c>
       <c r="P39" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q39" t="n">
         <v>2634.034907031697</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3094.39967467307</v>
+        <v>3887.131298320244</v>
       </c>
       <c r="C40" t="n">
-        <v>3094.39967467307</v>
+        <v>3718.195115392337</v>
       </c>
       <c r="D40" t="n">
-        <v>3094.39967467307</v>
+        <v>3718.195115392337</v>
       </c>
       <c r="E40" t="n">
-        <v>3094.39967467307</v>
+        <v>3570.282021809944</v>
       </c>
       <c r="F40" t="n">
-        <v>3094.39967467307</v>
+        <v>3532.953539993935</v>
       </c>
       <c r="G40" t="n">
-        <v>3094.39967467307</v>
+        <v>3364.56737804552</v>
       </c>
       <c r="H40" t="n">
-        <v>3094.39967467307</v>
+        <v>3212.274807935878</v>
       </c>
       <c r="I40" t="n">
-        <v>3094.39967467307</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="J40" t="n">
-        <v>3094.39967467307</v>
+        <v>3094.399674673069</v>
       </c>
       <c r="K40" t="n">
-        <v>3220.576739741753</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L40" t="n">
-        <v>3437.56637638957</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M40" t="n">
-        <v>3676.740647137149</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N40" t="n">
-        <v>3915.662504728984</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O40" t="n">
-        <v>4120.329215323791</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P40" t="n">
-        <v>4271.936261275596</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q40" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R40" t="n">
-        <v>4172.910792735328</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S40" t="n">
-        <v>3969.316411794448</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T40" t="n">
-        <v>3744.630133619675</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="U40" t="n">
-        <v>3455.489994454966</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="V40" t="n">
-        <v>3200.805506249079</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="W40" t="n">
-        <v>3094.39967467307</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="X40" t="n">
-        <v>3094.39967467307</v>
+        <v>4068.779763150484</v>
       </c>
       <c r="Y40" t="n">
-        <v>3094.39967467307</v>
+        <v>4068.779763150484</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>85.86932082650516</v>
       </c>
       <c r="J41" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726834</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
@@ -7424,10 +7424,10 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O41" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P41" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q41" t="n">
         <v>4263.177005716609</v>
@@ -7436,19 +7436,19 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S41" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T41" t="n">
-        <v>4080.819800233988</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U41" t="n">
-        <v>3827.167454980574</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.104567637003</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W41" t="n">
-        <v>3496.104567637003</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="X41" t="n">
         <v>3217.117452343003</v>
@@ -7488,25 +7488,25 @@
         <v>85.86932082650516</v>
       </c>
       <c r="J42" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K42" t="n">
-        <v>599.9915027548479</v>
+        <v>211.2268808843426</v>
       </c>
       <c r="L42" t="n">
-        <v>1160.370027405021</v>
+        <v>771.6054055345159</v>
       </c>
       <c r="M42" t="n">
-        <v>1405.236542852139</v>
+        <v>1426.657449751104</v>
       </c>
       <c r="N42" t="n">
-        <v>1676.261141920128</v>
+        <v>1771.178105388722</v>
       </c>
       <c r="O42" t="n">
-        <v>1897.156211352461</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q42" t="n">
         <v>2634.034907031697</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3200.805506249079</v>
+        <v>761.9393949149935</v>
       </c>
       <c r="C43" t="n">
-        <v>3200.805506249079</v>
+        <v>593.0032119870866</v>
       </c>
       <c r="D43" t="n">
-        <v>3200.805506249079</v>
+        <v>442.8865725747509</v>
       </c>
       <c r="E43" t="n">
-        <v>3200.805506249079</v>
+        <v>406.548052884562</v>
       </c>
       <c r="F43" t="n">
-        <v>3200.805506249079</v>
+        <v>406.548052884562</v>
       </c>
       <c r="G43" t="n">
-        <v>3094.39967467307</v>
+        <v>238.161890936147</v>
       </c>
       <c r="H43" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I43" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J43" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K43" t="n">
-        <v>3220.576739741753</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L43" t="n">
-        <v>3437.56637638957</v>
+        <v>429.0360225430046</v>
       </c>
       <c r="M43" t="n">
-        <v>3676.740647137149</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N43" t="n">
-        <v>3915.662504728984</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O43" t="n">
-        <v>4120.329215323791</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P43" t="n">
-        <v>4271.936261275596</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q43" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R43" t="n">
-        <v>4172.910792735328</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S43" t="n">
-        <v>3969.316411794448</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T43" t="n">
-        <v>3744.630133619675</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="U43" t="n">
-        <v>3455.489994454966</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="V43" t="n">
-        <v>3200.805506249079</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="W43" t="n">
-        <v>3200.805506249079</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="X43" t="n">
-        <v>3200.805506249079</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="Y43" t="n">
-        <v>3200.805506249079</v>
+        <v>943.5878597452332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2127.193604228027</v>
+        <v>1848.126825283944</v>
       </c>
       <c r="C44" t="n">
-        <v>1758.231087287615</v>
+        <v>1479.164308343532</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.965388680864</v>
+        <v>1120.898609736782</v>
       </c>
       <c r="E44" t="n">
-        <v>1014.17713608262</v>
+        <v>735.1103571385374</v>
       </c>
       <c r="F44" t="n">
-        <v>603.1912312930126</v>
+        <v>324.1244523489299</v>
       </c>
       <c r="G44" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H44" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I44" t="n">
         <v>85.86932082650516</v>
       </c>
       <c r="J44" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
         <v>780.2368617726829</v>
@@ -7661,10 +7661,10 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O44" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P44" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q44" t="n">
         <v>4263.177005716609</v>
@@ -7682,16 +7682,16 @@
         <v>3682.163298198642</v>
       </c>
       <c r="V44" t="n">
-        <v>3630.167189799155</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W44" t="n">
-        <v>3277.39853452904</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X44" t="n">
-        <v>2903.93277626796</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y44" t="n">
-        <v>2513.793444292149</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>85.86932082650516</v>
       </c>
       <c r="J45" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K45" t="n">
-        <v>599.9915027548479</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="L45" t="n">
-        <v>829.9546086231971</v>
+        <v>646.2478454766784</v>
       </c>
       <c r="M45" t="n">
-        <v>1150.289928152899</v>
+        <v>1352.162374036296</v>
       </c>
       <c r="N45" t="n">
-        <v>1494.810583790517</v>
+        <v>2092.467373040107</v>
       </c>
       <c r="O45" t="n">
-        <v>2091.407506135336</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P45" t="n">
         <v>2564.640348518367</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.86932082650516</v>
+        <v>995.518517441732</v>
       </c>
       <c r="C46" t="n">
-        <v>85.86932082650516</v>
+        <v>826.5823345138251</v>
       </c>
       <c r="D46" t="n">
-        <v>85.86932082650516</v>
+        <v>676.4656951014894</v>
       </c>
       <c r="E46" t="n">
-        <v>85.86932082650516</v>
+        <v>528.5526015190962</v>
       </c>
       <c r="F46" t="n">
-        <v>85.86932082650516</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="G46" t="n">
-        <v>85.86932082650516</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="H46" t="n">
-        <v>85.86932082650516</v>
+        <v>203.7444540893141</v>
       </c>
       <c r="I46" t="n">
         <v>85.86932082650516</v>
@@ -7834,22 +7834,22 @@
         <v>1284.935687478693</v>
       </c>
       <c r="T46" t="n">
-        <v>1147.100669132079</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="U46" t="n">
-        <v>857.96052996737</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="V46" t="n">
-        <v>603.2760417614832</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="W46" t="n">
-        <v>313.8588717245225</v>
+        <v>995.518517441732</v>
       </c>
       <c r="X46" t="n">
-        <v>85.86932082650516</v>
+        <v>995.518517441732</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.86932082650516</v>
+        <v>995.518517441732</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,10 +8778,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>125.3040821864517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>50.54726221114936</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>114.8229052940414</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>6.500468681538194</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>5.321768347774082</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>59.18705729584838</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298233</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>405.1039333641309</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298233</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>176.5572684709778</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>99.71884268366315</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>203.5950988054548</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>36.891481379315</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
-        <v>61.49696856812602</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U13" t="n">
         <v>286.2487377730621</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.460860197920226</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U14" t="n">
-        <v>251.11582180088</v>
+        <v>232.2550465744657</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.891481379315</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8208358357898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>91.94016077027855</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>173.8990917907549</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,10 +23938,10 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S19" t="n">
-        <v>40.73555337043092</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>6.423937337587461</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>335.2131186680554</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>200.0910018128808</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24148,7 +24148,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
-        <v>2.249572729045397</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3380010301042</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U22" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>160.3952251155016</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24218,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>276.2761111546419</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24263,13 +24263,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>216.5978397904663</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>156.2411774833454</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>201.5584371314712</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>27.51991293946833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>137.3691290678583</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>73.04372457635304</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>39.43587839083447</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,13 +24652,13 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.31866280891091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24686,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>204.3985703966725</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,13 +24731,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>124.6933399876975</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>135.0558420919252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,19 +24847,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.4394153930256</v>
+        <v>181.1812250763424</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,22 +24920,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>179.452894727223</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>132.536203890803</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24965,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44.76789072374427</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.5301800721833</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>116.6963819301808</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>231.6458988482523</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25217,10 +25217,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>216.5978397904655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25333,7 +25333,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S37" t="n">
-        <v>30.60163059569152</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>279.9619133931621</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>65.75633247428608</v>
       </c>
       <c r="T38" t="n">
-        <v>204.398570396673</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>108.4658510250827</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>2.249572729045411</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>181.1812250763421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,10 +25688,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>216.5978397904654</v>
       </c>
       <c r="X41" t="n">
-        <v>93.53385653740906</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>110.4588281532822</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>61.36052706868193</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>116.6963819301808</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>176.5572684709787</v>
       </c>
       <c r="H44" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>276.2761111546421</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>141.3329268049231</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>2.249572729045411</v>
@@ -26074,19 +26074,19 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T46" t="n">
-        <v>85.98274722987836</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810874</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821231.2810873998</v>
+        <v>821231.2810873999</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810873998</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810874</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821231.2810873998</v>
+        <v>821231.2810873999</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810874</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810873998</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810873998</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821231.2810873998</v>
+        <v>821231.2810873999</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821231.2810873999</v>
+        <v>821231.2810874</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>456239.6006041109</v>
+        <v>456239.600604111</v>
       </c>
       <c r="F2" t="n">
-        <v>456239.6006041109</v>
+        <v>456239.600604111</v>
       </c>
       <c r="G2" t="n">
         <v>456239.600604111</v>
       </c>
       <c r="H2" t="n">
-        <v>456239.600604111</v>
+        <v>456239.6006041109</v>
       </c>
       <c r="I2" t="n">
         <v>456239.6006041109</v>
@@ -26347,10 +26347,10 @@
         <v>456239.6006041109</v>
       </c>
       <c r="N2" t="n">
+        <v>456239.6006041109</v>
+      </c>
+      <c r="O2" t="n">
         <v>456239.600604111</v>
-      </c>
-      <c r="O2" t="n">
-        <v>456239.6006041109</v>
       </c>
       <c r="P2" t="n">
         <v>456239.600604111</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>389812.6557155694</v>
+        <v>389812.6557155697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99452.14232107859</v>
+        <v>99452.14232107865</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400809</v>
       </c>
       <c r="F4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="G4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="H4" t="n">
         <v>714.7644130400807</v>
       </c>
       <c r="I4" t="n">
+        <v>714.7644130400806</v>
+      </c>
+      <c r="J4" t="n">
         <v>714.7644130400807</v>
-      </c>
-      <c r="J4" t="n">
-        <v>714.7644130400806</v>
       </c>
       <c r="K4" t="n">
         <v>714.7644130400806</v>
       </c>
       <c r="L4" t="n">
+        <v>714.7644130400807</v>
+      </c>
+      <c r="M4" t="n">
+        <v>714.7644130400807</v>
+      </c>
+      <c r="N4" t="n">
         <v>714.7644130400806</v>
       </c>
-      <c r="M4" t="n">
-        <v>714.7644130400806</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>714.7644130400807</v>
       </c>
-      <c r="O4" t="n">
-        <v>714.7644130400806</v>
-      </c>
       <c r="P4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874659</v>
       </c>
       <c r="F5" t="n">
         <v>80839.64176874656</v>
@@ -26485,10 +26485,10 @@
         <v>80839.64176874657</v>
       </c>
       <c r="H5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="I5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="J5" t="n">
         <v>80839.64176874657</v>
@@ -26497,13 +26497,13 @@
         <v>80839.64176874657</v>
       </c>
       <c r="L5" t="n">
+        <v>80839.64176874657</v>
+      </c>
+      <c r="M5" t="n">
         <v>80839.64176874656</v>
       </c>
-      <c r="M5" t="n">
-        <v>80839.64176874657</v>
-      </c>
       <c r="N5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="O5" t="n">
         <v>80839.64176874657</v>
@@ -26528,22 +26528,22 @@
         <v>291232.8889211487</v>
       </c>
       <c r="E6" t="n">
-        <v>-15127.46129324517</v>
+        <v>-15127.46129324537</v>
       </c>
       <c r="F6" t="n">
-        <v>374685.1944223243</v>
+        <v>374685.1944223245</v>
       </c>
       <c r="G6" t="n">
         <v>374685.1944223243</v>
       </c>
       <c r="H6" t="n">
-        <v>374685.1944223244</v>
+        <v>374685.1944223242</v>
       </c>
       <c r="I6" t="n">
         <v>374685.1944223243</v>
       </c>
       <c r="J6" t="n">
-        <v>198261.9752297314</v>
+        <v>198261.9752297313</v>
       </c>
       <c r="K6" t="n">
         <v>374685.1944223243</v>
@@ -26552,16 +26552,16 @@
         <v>374685.1944223243</v>
       </c>
       <c r="M6" t="n">
-        <v>275233.0521012456</v>
+        <v>275233.0521012457</v>
       </c>
       <c r="N6" t="n">
         <v>374685.1944223244</v>
       </c>
       <c r="O6" t="n">
-        <v>374685.1944223242</v>
+        <v>374685.1944223244</v>
       </c>
       <c r="P6" t="n">
-        <v>374685.1944223243</v>
+        <v>374685.1944223244</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>714.6310981927825</v>
+        <v>714.6310981927827</v>
       </c>
       <c r="F3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927827</v>
       </c>
       <c r="G3" t="n">
         <v>714.6310981927826</v>
       </c>
       <c r="H3" t="n">
-        <v>714.6310981927827</v>
+        <v>714.6310981927826</v>
       </c>
       <c r="I3" t="n">
         <v>714.6310981927826</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1073.366510331314</v>
+        <v>1073.366510331315</v>
       </c>
       <c r="F4" t="n">
         <v>1073.366510331314</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.8874339756958</v>
+        <v>336.887433975696</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.0792375767587</v>
+        <v>399.079237576759</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767587</v>
+        <v>399.0792375767589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767587</v>
+        <v>399.079237576759</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>363.9399835456304</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>107.4781987052507</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>35.40951857488714</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.0395466913661</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>193.2514503543078</v>
+        <v>52.55328306226772</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>136.1454511924346</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>246.6429996814537</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>306.7451116554084</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>26.37220616258588</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>226.9288981195442</v>
+        <v>85.14112624278593</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.9811619494227</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.872888836955907</v>
+        <v>2.872888836955908</v>
       </c>
       <c r="H11" t="n">
-        <v>29.42197280147469</v>
+        <v>29.4219728014747</v>
       </c>
       <c r="I11" t="n">
-        <v>110.7570468867427</v>
+        <v>110.7570468867428</v>
       </c>
       <c r="J11" t="n">
         <v>243.8328489255867</v>
       </c>
       <c r="K11" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939304</v>
       </c>
       <c r="L11" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379199</v>
       </c>
       <c r="M11" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921345</v>
       </c>
       <c r="N11" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001355</v>
       </c>
       <c r="O11" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276552</v>
       </c>
       <c r="P11" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653061</v>
       </c>
       <c r="Q11" t="n">
         <v>310.2396743918225</v>
@@ -31786,13 +31786,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S11" t="n">
-        <v>65.4659543721328</v>
+        <v>65.46595437213283</v>
       </c>
       <c r="T11" t="n">
-        <v>12.57607088377449</v>
+        <v>12.5760708837745</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2298311069564725</v>
+        <v>0.2298311069564726</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.537131041395796</v>
+        <v>1.537131041395797</v>
       </c>
       <c r="H12" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I12" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314476</v>
       </c>
       <c r="J12" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>333.7529482644689</v>
+        <v>333.752948264469</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N12" t="n">
-        <v>399.7821650163567</v>
+        <v>314.346330393235</v>
       </c>
       <c r="O12" t="n">
-        <v>365.7225772043761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280223</v>
       </c>
       <c r="S12" t="n">
-        <v>28.55153491364558</v>
+        <v>28.55153491364559</v>
       </c>
       <c r="T12" t="n">
-        <v>6.195716785275159</v>
+        <v>6.195716785275161</v>
       </c>
       <c r="U12" t="n">
         <v>0.1011270421970919</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.288679029527968</v>
+        <v>1.288679029527969</v>
       </c>
       <c r="H13" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I13" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707747</v>
       </c>
       <c r="J13" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762738</v>
       </c>
       <c r="K13" t="n">
         <v>149.7210727033403</v>
       </c>
       <c r="L13" t="n">
-        <v>191.5914258990945</v>
+        <v>191.5914258990946</v>
       </c>
       <c r="M13" t="n">
-        <v>202.0062955104614</v>
+        <v>202.0062955104615</v>
       </c>
       <c r="N13" t="n">
         <v>197.2030373094937</v>
@@ -31941,16 +31941,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R13" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313938</v>
       </c>
       <c r="S13" t="n">
-        <v>22.45816090550104</v>
+        <v>22.45816090550105</v>
       </c>
       <c r="T13" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879838</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,28 +31993,28 @@
         <v>29.4219728014747</v>
       </c>
       <c r="I14" t="n">
-        <v>110.7570468867427</v>
+        <v>110.7570468867428</v>
       </c>
       <c r="J14" t="n">
         <v>243.8328489255867</v>
       </c>
       <c r="K14" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939304</v>
       </c>
       <c r="L14" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379199</v>
       </c>
       <c r="M14" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921345</v>
       </c>
       <c r="N14" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001355</v>
       </c>
       <c r="O14" t="n">
-        <v>484.0494490276551</v>
+        <v>484.0494490276552</v>
       </c>
       <c r="P14" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653061</v>
       </c>
       <c r="Q14" t="n">
         <v>310.2396743918225</v>
@@ -32023,10 +32023,10 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S14" t="n">
-        <v>65.46595437213281</v>
+        <v>65.46595437213283</v>
       </c>
       <c r="T14" t="n">
-        <v>12.57607088377449</v>
+        <v>12.5760708837745</v>
       </c>
       <c r="U14" t="n">
         <v>0.2298311069564726</v>
@@ -32081,31 +32081,31 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>118.081398828605</v>
+        <v>127.5899018804581</v>
       </c>
       <c r="M15" t="n">
-        <v>389.4739485150665</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>399.7821650163568</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>365.7225772043763</v>
       </c>
       <c r="P15" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.43696062280222</v>
+        <v>95.43696062280223</v>
       </c>
       <c r="S15" t="n">
         <v>28.55153491364559</v>
       </c>
       <c r="T15" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275161</v>
       </c>
       <c r="U15" t="n">
         <v>0.1011270421970919</v>
@@ -32145,25 +32145,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.288679029527968</v>
+        <v>1.288679029527969</v>
       </c>
       <c r="H16" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I16" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707747</v>
       </c>
       <c r="J16" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762738</v>
       </c>
       <c r="K16" t="n">
         <v>149.7210727033403</v>
       </c>
       <c r="L16" t="n">
-        <v>191.5914258990945</v>
+        <v>191.5914258990946</v>
       </c>
       <c r="M16" t="n">
-        <v>202.0062955104614</v>
+        <v>202.0062955104615</v>
       </c>
       <c r="N16" t="n">
         <v>197.2030373094937</v>
@@ -32178,16 +32178,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R16" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313938</v>
       </c>
       <c r="S16" t="n">
-        <v>22.45816090550104</v>
+        <v>22.45816090550105</v>
       </c>
       <c r="T16" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879838</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,25 +32315,25 @@
         <v>145.2251743978371</v>
       </c>
       <c r="K18" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>210.0960847076589</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73001549682135</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>365.7225772043762</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>95.43696062280222</v>
@@ -32467,28 +32467,28 @@
         <v>29.4219728014747</v>
       </c>
       <c r="I20" t="n">
-        <v>110.7570468867428</v>
+        <v>110.7570468867427</v>
       </c>
       <c r="J20" t="n">
         <v>243.8328489255867</v>
       </c>
       <c r="K20" t="n">
-        <v>365.4422333939304</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L20" t="n">
-        <v>453.3634051379199</v>
+        <v>453.3634051379198</v>
       </c>
       <c r="M20" t="n">
-        <v>504.4541419921345</v>
+        <v>504.4541419921344</v>
       </c>
       <c r="N20" t="n">
-        <v>512.6167374001355</v>
+        <v>512.6167374001354</v>
       </c>
       <c r="O20" t="n">
-        <v>484.0494490276552</v>
+        <v>484.0494490276551</v>
       </c>
       <c r="P20" t="n">
-        <v>413.1250058653061</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q20" t="n">
         <v>310.2396743918225</v>
@@ -32497,10 +32497,10 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S20" t="n">
-        <v>65.46595437213283</v>
+        <v>65.46595437213281</v>
       </c>
       <c r="T20" t="n">
-        <v>12.5760708837745</v>
+        <v>12.57607088377449</v>
       </c>
       <c r="U20" t="n">
         <v>0.2298311069564726</v>
@@ -32549,37 +32549,37 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.8981183817484</v>
       </c>
       <c r="L21" t="n">
-        <v>75.85505587842613</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N21" t="n">
-        <v>399.7821650163568</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>365.7225772043763</v>
+        <v>365.7225772043762</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.2134290736109</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.43696062280223</v>
+        <v>95.43696062280222</v>
       </c>
       <c r="S21" t="n">
         <v>28.55153491364559</v>
       </c>
       <c r="T21" t="n">
-        <v>6.195716785275161</v>
+        <v>6.19571678527516</v>
       </c>
       <c r="U21" t="n">
         <v>0.1011270421970919</v>
@@ -32619,25 +32619,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288679029527969</v>
+        <v>1.288679029527968</v>
       </c>
       <c r="H22" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I22" t="n">
-        <v>38.75409299707747</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J22" t="n">
-        <v>91.10960738762738</v>
+        <v>91.10960738762736</v>
       </c>
       <c r="K22" t="n">
         <v>149.7210727033403</v>
       </c>
       <c r="L22" t="n">
-        <v>191.5914258990946</v>
+        <v>191.5914258990945</v>
       </c>
       <c r="M22" t="n">
-        <v>202.0062955104615</v>
+        <v>202.0062955104614</v>
       </c>
       <c r="N22" t="n">
         <v>197.2030373094937</v>
@@ -32652,16 +32652,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R22" t="n">
-        <v>57.94369527313938</v>
+        <v>57.94369527313937</v>
       </c>
       <c r="S22" t="n">
-        <v>22.45816090550105</v>
+        <v>22.45816090550104</v>
       </c>
       <c r="T22" t="n">
-        <v>5.506174035255865</v>
+        <v>5.506174035255864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07029158342879838</v>
+        <v>0.07029158342879836</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>248.2129541713554</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>399.7821650163568</v>
       </c>
       <c r="O24" t="n">
         <v>365.7225772043762</v>
@@ -32807,7 +32807,7 @@
         <v>293.5246108784658</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R24" t="n">
         <v>95.43696062280222</v>
@@ -33023,7 +33023,7 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J27" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>248.2129541713554</v>
@@ -33035,16 +33035,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>159.9802611823973</v>
       </c>
       <c r="O27" t="n">
-        <v>311.1287416653669</v>
+        <v>365.7225772043762</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>95.43696062280222</v>
@@ -33260,25 +33260,25 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N30" t="n">
-        <v>399.7821650163568</v>
+        <v>356.1308500260803</v>
       </c>
       <c r="O30" t="n">
         <v>365.7225772043762</v>
       </c>
       <c r="P30" t="n">
-        <v>75.85505587842584</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q30" t="n">
         <v>196.2134290736108</v>
@@ -33497,28 +33497,28 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K33" t="n">
         <v>248.2129541713554</v>
       </c>
       <c r="L33" t="n">
-        <v>106.3617136078827</v>
+        <v>290.1016332741925</v>
       </c>
       <c r="M33" t="n">
         <v>389.4739485150665</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>399.7821650163568</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>365.7225772043762</v>
       </c>
       <c r="P33" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R33" t="n">
         <v>95.43696062280222</v>
@@ -33737,10 +33737,10 @@
         <v>145.2251743978371</v>
       </c>
       <c r="K36" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>333.7529482644689</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>389.4739485150665</v>
@@ -33749,13 +33749,13 @@
         <v>399.7821650163568</v>
       </c>
       <c r="O36" t="n">
-        <v>365.7225772043762</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.2134290736108</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>95.43696062280222</v>
@@ -33971,28 +33971,28 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>297.0066427135091</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N39" t="n">
         <v>399.7821650163568</v>
       </c>
       <c r="O39" t="n">
-        <v>365.7225772043762</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R39" t="n">
         <v>95.43696062280222</v>
@@ -34208,16 +34208,16 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J42" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>333.7529482644689</v>
       </c>
       <c r="M42" t="n">
-        <v>389.4739485150665</v>
+        <v>338.0977017039253</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34226,10 +34226,10 @@
         <v>365.7225772043762</v>
       </c>
       <c r="P42" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>95.43696062280222</v>
@@ -34366,7 +34366,7 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8328489255867</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K44" t="n">
         <v>365.4422333939303</v>
@@ -34445,25 +34445,25 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J45" t="n">
-        <v>145.2251743978371</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>399.7821650163568</v>
       </c>
       <c r="O45" t="n">
-        <v>351.3570790513702</v>
+        <v>41.18796341509773</v>
       </c>
       <c r="P45" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>231.8835595709741</v>
+        <v>231.8835595709742</v>
       </c>
       <c r="K11" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201146</v>
       </c>
       <c r="L11" t="n">
-        <v>635.2582047183829</v>
+        <v>635.258204718383</v>
       </c>
       <c r="M11" t="n">
-        <v>723.6214422576941</v>
+        <v>723.6214422576942</v>
       </c>
       <c r="N11" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155288</v>
       </c>
       <c r="O11" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687138</v>
       </c>
       <c r="P11" t="n">
-        <v>503.6907182815191</v>
+        <v>503.6907182815192</v>
       </c>
       <c r="Q11" t="n">
         <v>300.2489751772777</v>
       </c>
       <c r="R11" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328206</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>374.836752209575</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>566.0389137880538</v>
+        <v>566.0389137880539</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N12" t="n">
-        <v>268.4404529330234</v>
+        <v>662.3469926534552</v>
       </c>
       <c r="O12" t="n">
-        <v>348.4304149463834</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>127.4515808774574</v>
+        <v>127.4515808774575</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1814511594106</v>
+        <v>219.1814511594107</v>
       </c>
       <c r="M13" t="n">
         <v>241.590172472302</v>
@@ -35586,7 +35586,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.74725257541577</v>
+        <v>21.7472525754158</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>231.8835595709742</v>
       </c>
       <c r="K14" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201146</v>
       </c>
       <c r="L14" t="n">
         <v>635.258204718383</v>
@@ -35656,19 +35656,19 @@
         <v>723.6214422576942</v>
       </c>
       <c r="N14" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155288</v>
       </c>
       <c r="O14" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687138</v>
       </c>
       <c r="P14" t="n">
-        <v>503.6907182815191</v>
+        <v>503.6907182815192</v>
       </c>
       <c r="Q14" t="n">
         <v>300.2489751772777</v>
       </c>
       <c r="R14" t="n">
-        <v>30.59498546328203</v>
+        <v>30.59498546328206</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.3875477311704</v>
+        <v>144.4785830715793</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>350.36736435219</v>
+        <v>359.875867404043</v>
       </c>
       <c r="M15" t="n">
-        <v>713.0449783430481</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>747.782827276577</v>
+        <v>747.7828272765771</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P15" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.3089427234384</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>127.4515808774574</v>
+        <v>127.4515808774575</v>
       </c>
       <c r="L16" t="n">
         <v>219.1814511594107</v>
@@ -35823,7 +35823,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.74725257541579</v>
+        <v>21.7472525754158</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K18" t="n">
-        <v>374.836752209575</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>442.3820502312439</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N18" t="n">
-        <v>403.7306777570416</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9886520366613</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>478.0129721040727</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>231.8835595709742</v>
       </c>
       <c r="K20" t="n">
-        <v>469.4977949201146</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L20" t="n">
         <v>635.258204718383</v>
@@ -36130,19 +36130,19 @@
         <v>723.6214422576942</v>
       </c>
       <c r="N20" t="n">
-        <v>720.5505982155288</v>
+        <v>720.5505982155287</v>
       </c>
       <c r="O20" t="n">
-        <v>634.7514188687138</v>
+        <v>634.7514188687137</v>
       </c>
       <c r="P20" t="n">
-        <v>503.6907182815192</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q20" t="n">
         <v>300.2489751772777</v>
       </c>
       <c r="R20" t="n">
-        <v>30.59498546328206</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>264.521916419968</v>
       </c>
       <c r="L21" t="n">
-        <v>308.1410214020111</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7828272765771</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>616.9886520366613</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>266.3089427234385</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>127.4515808774575</v>
+        <v>127.4515808774574</v>
       </c>
       <c r="L22" t="n">
         <v>219.1814511594107</v>
@@ -36297,7 +36297,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.7472525754158</v>
+        <v>21.74725257541579</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>374.836752209575</v>
       </c>
       <c r="L24" t="n">
-        <v>566.0389137880538</v>
+        <v>245.7458306957441</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>268.4404529330235</v>
       </c>
       <c r="O24" t="n">
         <v>616.9886520366613</v>
       </c>
       <c r="P24" t="n">
-        <v>274.373108758177</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234384</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>374.836752209575</v>
@@ -36683,16 +36683,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>507.9809234426175</v>
       </c>
       <c r="O27" t="n">
-        <v>562.394816497652</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.3875477311704</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>110.3715151969965</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N30" t="n">
-        <v>747.782827276577</v>
+        <v>704.1315122863006</v>
       </c>
       <c r="O30" t="n">
         <v>616.9886520366613</v>
       </c>
       <c r="P30" t="n">
-        <v>260.3434171040328</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q30" t="n">
-        <v>266.3089427234384</v>
+        <v>56.23165498758931</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.3875477311704</v>
       </c>
       <c r="K33" t="n">
-        <v>374.836752209575</v>
+        <v>110.3715151969965</v>
       </c>
       <c r="L33" t="n">
-        <v>338.6476791314677</v>
+        <v>151.5472534943183</v>
       </c>
       <c r="M33" t="n">
         <v>713.0449783430481</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>747.782827276577</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P33" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>56.23165498758931</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.4785830715792</v>
+        <v>24.88801641270859</v>
       </c>
       <c r="K36" t="n">
-        <v>374.836752209575</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>566.0389137880538</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>247.3399145930481</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N36" t="n">
-        <v>273.7622212807976</v>
+        <v>747.782827276577</v>
       </c>
       <c r="O36" t="n">
-        <v>223.1263327599318</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>478.0129721040727</v>
       </c>
       <c r="Q36" t="n">
-        <v>266.3089427234384</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>529.2926082370941</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N39" t="n">
         <v>747.782827276577</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9886520366613</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>159.5502034641355</v>
+        <v>218.7372607599839</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234384</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R41" t="n">
-        <v>30.59498546328192</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.836752209575</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M42" t="n">
-        <v>247.3399145930481</v>
+        <v>661.6687315319069</v>
       </c>
       <c r="N42" t="n">
-        <v>273.7622212807976</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>223.1263327599318</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P42" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.3089427234384</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
         <v>469.4977949201145</v>
@@ -38038,7 +38038,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R44" t="n">
-        <v>30.59498546328192</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>374.836752209575</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>747.782827276577</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6231538836553</v>
+        <v>292.4540382473828</v>
       </c>
       <c r="P45" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
